--- a/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/read_input_2.xlsx
+++ b/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/read_input_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67D59E9-98CE-F249-BFAE-FE5331778FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01705182-FCD0-D64C-9FE3-6410AE021715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="115">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -281,9 +281,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>S000036</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -369,6 +366,18 @@
   </si>
   <si>
     <t>NNNN</t>
+  </si>
+  <si>
+    <t>C66767X</t>
+  </si>
+  <si>
+    <t>C49503X</t>
+  </si>
+  <si>
+    <t>SN0000</t>
+  </si>
+  <si>
+    <t>S0000</t>
   </si>
 </sst>
 </file>
@@ -747,15 +756,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
-    <col min="3" max="6" width="11.5" style="1"/>
+    <col min="3" max="3" width="11.5" style="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1"/>
     <col min="7" max="7" width="30.1640625" style="1" customWidth="1"/>
     <col min="8" max="9" width="11.5" style="1"/>
     <col min="10" max="10" width="43" style="1" customWidth="1"/>
@@ -984,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -1025,7 +1036,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -1066,7 +1077,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -1242,7 +1253,7 @@
         <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>63</v>
@@ -1289,7 +1300,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>35</v>
@@ -1439,7 +1450,7 @@
         <v>27</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>28</v>
@@ -1483,7 +1494,7 @@
         <v>45</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>28</v>
@@ -1574,7 +1585,7 @@
         <v>29</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>28</v>
@@ -1618,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>28</v>
@@ -1665,7 +1676,7 @@
         <v>28</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -1709,7 +1720,7 @@
         <v>28</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -1817,7 +1828,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>77</v>
@@ -1847,7 +1858,7 @@
         <v>29</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -1867,22 +1878,22 @@
         <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>28</v>
@@ -1894,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -1914,16 +1925,16 @@
         <v>76</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>81</v>
@@ -1958,16 +1969,16 @@
         <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>81</v>
@@ -2002,7 +2013,7 @@
         <v>76</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>37</v>
@@ -2011,7 +2022,7 @@
         <v>66</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>81</v>
@@ -2046,7 +2057,7 @@
         <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
@@ -2055,7 +2066,7 @@
         <v>64</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>81</v>
@@ -2090,7 +2101,7 @@
         <v>76</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>45</v>
@@ -2099,7 +2110,7 @@
         <v>62</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>81</v>
@@ -2134,7 +2145,7 @@
         <v>76</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
@@ -2143,7 +2154,7 @@
         <v>60</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>81</v>
@@ -2178,7 +2189,7 @@
         <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>33</v>
@@ -2187,7 +2198,7 @@
         <v>58</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>81</v>
@@ -2222,22 +2233,22 @@
         <v>76</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>81</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>28</v>
@@ -2483,18 +2494,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2517,6 +2528,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
@@ -2531,12 +2550,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>